--- a/biology/Botanique/Château_Montrose/Château_Montrose.xlsx
+++ b/biology/Botanique/Château_Montrose/Château_Montrose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Montrose</t>
+          <t>Château_Montrose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Château Montrose est un domaine viticole de 95 hectares situé à Saint-Estèphe en Gironde. Il produit un vin sous l'appellation saint-estèphe, classé deuxième grand cru au classement de 1855.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Montrose</t>
+          <t>Château_Montrose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin et Olivier Bouygues[1] font l’acquisition de Château Montrose en 2006[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin et Olivier Bouygues font l’acquisition de Château Montrose en 2006.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Montrose</t>
+          <t>Château_Montrose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,11 +557,13 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À 5 kilomètres au nord de Pauillac, sur l’appellation communale de Saint-Estèphe, la plus au nord du Médoc, Château Montrose est situé sur un sol de graves, dominant l’estuaire de la Gironde sur plus d’un kilomètre.
-Le sol est constitué de sables argileux sur graves profondes permettant un enracinement profond[3]. En surface, les « graves », reflètent la lumière permettant un bon ensoleillement des grappes et restituent le soir la chaleur emmagasinée durant la journée[2].
-Le domaine s'étend sur 130 hectares : 95 hectares de vignes d'un seul tenant et 35 hectares de zones "vertes" (prairies, vieilles forêts, etc.)[3]. L'encépagement de Château Montrose se compose de 60 % de cabernet sauvignon, 32 % de merlot, 6 % de cabernet franc et 2 % de petit verdot[4],[5].
+Le sol est constitué de sables argileux sur graves profondes permettant un enracinement profond. En surface, les « graves », reflètent la lumière permettant un bon ensoleillement des grappes et restituent le soir la chaleur emmagasinée durant la journée.
+Le domaine s'étend sur 130 hectares : 95 hectares de vignes d'un seul tenant et 35 hectares de zones "vertes" (prairies, vieilles forêts, etc.). L'encépagement de Château Montrose se compose de 60 % de cabernet sauvignon, 32 % de merlot, 6 % de cabernet franc et 2 % de petit verdot,.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Montrose</t>
+          <t>Château_Montrose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,10 +592,12 @@
           <t>Vins produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le grand vin de Château Montrose est élevé 18 mois dans 60 % de barriques neuves de chêne français[6].
-La propriété produit également un second vin à dominante merlot, La Dame de Montrose[6]. L’élevage dure 12 mois dans 30 % de barriques neuves de chêne français.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand vin de Château Montrose est élevé 18 mois dans 60 % de barriques neuves de chêne français.
+La propriété produit également un second vin à dominante merlot, La Dame de Montrose. L’élevage dure 12 mois dans 30 % de barriques neuves de chêne français.
 </t>
         </is>
       </c>
